--- a/mbs-perturbation/mega/svm/correlations.xlsx
+++ b/mbs-perturbation/mega/svm/correlations.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.440200283858697</v>
+        <v>0.4718729947547413</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0900916512877977</v>
+        <v>-0.1105009917030007</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0847889092282328</v>
+        <v>-0.08239161861400368</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2267854086494821</v>
+        <v>-0.1386824244103976</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5078413610158282</v>
+        <v>0.5587875930729537</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.004587127418187453</v>
+        <v>0.06969053970536494</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3264171530648082</v>
+        <v>0.3364873894235904</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06507986243452696</v>
+        <v>0.1007240680143905</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.03051958623185801</v>
+        <v>0.04398797667085003</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4843579491382483</v>
+        <v>0.5024677383589957</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0923944766870842</v>
+        <v>-0.206048725654338</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3293920776450604</v>
+        <v>0.3090964106446644</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3498216262581987</v>
+        <v>0.3717738986566355</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1470218453488512</v>
+        <v>-0.207706705238896</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1590710647037979</v>
+        <v>-0.2036680855411796</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2115901478359019</v>
+        <v>-0.2239374867937987</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.2136898948717531</v>
+        <v>-0.215459123266816</v>
       </c>
     </row>
   </sheetData>
